--- a/pre-processing/data_cleaned/tv.xlsx
+++ b/pre-processing/data_cleaned/tv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[new 2026 tv series] smart tivi xiaomi tv a pro 43 2026 - 43 inch - hang chinh hang</t>
+          <t>xiaomi 43 inch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>smart tivi lg ai 4k 55 inch 55ua8450psa- hang chinh hang</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>smart tivi lg ai 4k 65 inch 65ua8450psa- hang chinh hang</t>
+          <t>lg 65 inch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>google tivi xiaomi a 2026 4k 55 inch l55mb-asea - hang chinh hang</t>
+          <t>xiaomi 55 inch</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>google tivi xiaomi a 2026 4k 43 inch l43mb-ausea - hang chinh hang</t>
+          <t>xiaomi 43 inch</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>smart tivi qled samsung 4k 55 inch qa55qe1dakxxv - hang chinh hang</t>
+          <t>samsung 55 inch</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>google tivi tcl qled full hd 32 inch 32s5k - hang chinh hang</t>
+          <t>tcl 32 inch</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>google tivi tcl qled 4k 43 inch 43p7k - hang chinh hang</t>
+          <t>tcl 43 inch</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -807,519 +807,519 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>277988926</v>
+        <v>277976029</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>google tivi xiaomi a pro 2026 qled 4k 55 inch l55mb-apsea - hang chinh hang</t>
+          <t>tcl 43 inch</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>tcl</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>images/tv/product_277988926.jpg</t>
+          <t>images/tv/product_277976029.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b7/19/1c/deaa9f4bfbdb3d171ea15e64642e9914.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/fa/6e/4d68f0bfa9624aaa3c867bb01fcfd656.png</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9530000</v>
+        <v>5620000</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>277988927</v>
+        <v>277976030</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>277988890</v>
+        <v>277972475</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>google tivi xiaomi a pro 2026 qled 4k 43 inch l43mb-apsea - hang chinh hang</t>
+          <t>samsung 65 inch</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>images/tv/product_277988890.jpg</t>
+          <t>images/tv/product_277972475.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1a/74/69/4f5f99bcea359adee823cb74e4841efa.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e4/38/e8/7c75aa1287e4df4a2620efb3cad7a48b.png</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6920000</v>
+        <v>10430000</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>277988895</v>
+        <v>277972499</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>277976029</v>
+        <v>277972387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>google tivi qled tcl full hd 43 inch 43s5k - hang chinh hang</t>
+          <t>samsung 55 inch</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>tcl</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>images/tv/product_277976029.jpg</t>
+          <t>images/tv/product_277972387.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/fa/6e/4d68f0bfa9624aaa3c867bb01fcfd656.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/b3/58/2b19928dbd3c157eb08cd4c85fef2687.png</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5620000</v>
+        <v>8420000</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>277976030</v>
+        <v>277972388</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>277972475</v>
+        <v>277971948</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>smart tivi samsung 4k 65 inch ua65du7000kxxv - hang chinh hang</t>
+          <t>tcl 55 inch</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>tcl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>images/tv/product_277972475.jpg</t>
+          <t>images/tv/product_277971948.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e4/38/e8/7c75aa1287e4df4a2620efb3cad7a48b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9e/e5/16/90180191ae268153fa45029686db315c.png</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10430000</v>
+        <v>7830000</v>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>277972499</v>
+        <v>277972025</v>
       </c>
       <c r="J13" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>277972387</v>
+        <v>277971781</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>smart tivi samsung 4k 55 inch ua55du7000kxxv - hang chinh hang</t>
+          <t>tcl 43 inch</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>tcl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>images/tv/product_277972387.jpg</t>
+          <t>images/tv/product_277971781.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/b3/58/2b19928dbd3c157eb08cd4c85fef2687.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/df/e7/36/8bb977bdf402133759d1b30300992275.png</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8420000</v>
+        <v>5420000</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>277972388</v>
+        <v>277971808</v>
       </c>
       <c r="J14" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>277971948</v>
+        <v>277429931</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>google tivi led tcl 4k 55 inch 55p755 pro - hang chinh hang</t>
+          <t>xiaomi 43 inch</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tcl</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>images/tv/product_277971948.jpg</t>
+          <t>images/tv/product_277429931.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9e/e5/16/90180191ae268153fa45029686db315c.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/b3/be/ac685f9b27312d6b53564c41c6d8f3f7.jpg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7830000</v>
+        <v>5955000</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>277972025</v>
+        <v>277429932</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>277971781</v>
+        <v>276931435</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>google tivi tcl 4k 43 inch 43p755 - hang chinh hang</t>
+          <t>hisense 40 inch</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>tcl</t>
+          <t>hisense</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>images/tv/product_277971781.jpg</t>
+          <t>images/tv/product_276931435.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/df/e7/36/8bb977bdf402133759d1b30300992275.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/ba/e0/2fadc3a8ccabd3253bb9be6bfdab91c1.png</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5420000</v>
+        <v>4369000</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>277971808</v>
+        <v>276931436</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>277429931</v>
+        <v>276389560</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>smart tivi xiaomi tv a43" fud 2025 - 43 inch - hang chinh hang, bao hanh 24 thang</t>
+          <t>coocaa 43 inch</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>images/tv/product_277429931.jpg</t>
+          <t>images/tv/product_276389560.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/b3/be/ac685f9b27312d6b53564c41c6d8f3f7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/2b/6e/d93973a6c0458559e4e7c303bf11f2cf.jpg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5955000</v>
+        <v>3730000</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>277429932</v>
+        <v>276389561</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>276931435</v>
+        <v>276268195</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tivi android  led hisense 40 inch 40a4n - hang chinh hang - chi giao hcm</t>
+          <t>samsung 65 inch</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hisense</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>images/tv/product_276931435.jpg</t>
+          <t>images/tv/product_276268195.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/ba/e0/2fadc3a8ccabd3253bb9be6bfdab91c1.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f7/15/1c/cc0f67740bb4cff6562a6449dd61b5d5.png</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4369000</v>
+        <v>11779000</v>
       </c>
       <c r="G18" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>276931436</v>
+        <v>276423976</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>276389560</v>
+        <v>276178085</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>smart tv full hd coocaa 43 inch 43s3u+ - hang chinh hang</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>images/tv/product_276389560.jpg</t>
+          <t>images/tv/product_276178085.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/2b/6e/d93973a6c0458559e4e7c303bf11f2cf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/media/catalog/producttmp/b3/77/2f/f7cc58e0f10ca04e8eb3233c208dd201.png</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3730000</v>
+        <v>8830000</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>276389561</v>
+        <v>276178089</v>
       </c>
       <c r="J19" t="n">
-        <v>203</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>276268195</v>
+        <v>275987600</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>smart tivi samsung 4k 65 inch ua65du7700 - hang chinh hang - chi giao hcm</t>
+          <t>coocaa 65 inch</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>images/tv/product_276268195.jpg</t>
+          <t>images/tv/product_275987600.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f7/15/1c/cc0f67740bb4cff6562a6449dd61b5d5.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/61/15/4e3161ec96968711a7a2a53d715ef23c.png</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11779000</v>
+        <v>10160000</v>
       </c>
       <c r="G20" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>276423976</v>
+        <v>276507844</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>276178085</v>
+        <v>275646608</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>smart tivi lg 4k 55 inch 55ut8050psb - hang chinh hang</t>
+          <t>coocaa 43 inch</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>images/tv/product_276178085.jpg</t>
+          <t>images/tv/product_275646608.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/media/catalog/producttmp/b3/77/2f/f7cc58e0f10ca04e8eb3233c208dd201.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/52/ef/2c76b7a3a254c8e3edbe77ed4754af47.jpg</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8830000</v>
+        <v>3659000</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>276178089</v>
+        <v>275658527</v>
       </c>
       <c r="J21" t="n">
-        <v>1055</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>275987600</v>
+        <v>275603347</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>google tivi coocaa 4k 65 inch 65y73 - hang chinh hang - chi giao hcm</t>
+          <t>sony 75 inch</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>images/tv/product_275987600.jpg</t>
+          <t>images/tv/product_275603347.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/61/15/4e3161ec96968711a7a2a53d715ef23c.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/62/4b/70/83b4b79382bfef3c12bf4ed0ee549d54.png</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10160000</v>
+        <v>70179000</v>
       </c>
       <c r="G22" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>276507844</v>
+        <v>275603348</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -1327,51 +1327,51 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>275646608</v>
+        <v>275603123</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>43s3u+ - smart tivi coocaa 43s3u+ full hd 43 inch - hang chinh hang - chi giao ho chi minh</t>
+          <t>sony 75 inch</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>images/tv/product_275646608.jpg</t>
+          <t>images/tv/product_275603123.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/52/ef/2c76b7a3a254c8e3edbe77ed4754af47.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a2/3f/37/b52e32322ac61fbe924be404d27ee2ce.png</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3659000</v>
+        <v>26246000</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>275658527</v>
+        <v>275860930</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>275603347</v>
+        <v>275269812</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>k-75xr90 - google tivi mini led sony 4k 75 inch k-75xr90 - hang chinh hang</t>
+          <t>sony 50 inch</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1381,25 +1381,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>images/tv/product_275603347.jpg</t>
+          <t>images/tv/product_275269812.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/62/4b/70/83b4b79382bfef3c12bf4ed0ee549d54.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7f/e1/14/1829eda7b65331f50ed7c8db1286aed4.png</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>70179000</v>
+        <v>13877000</v>
       </c>
       <c r="G24" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>275603348</v>
+        <v>275902262</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
@@ -1407,199 +1407,199 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>275603123</v>
+        <v>275247634</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>k-75s30 - google tivi sony 4k 75 inch k-75s30 - hang chinh hang</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>images/tv/product_275603123.jpg</t>
+          <t>images/tv/product_275247634.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a2/3f/37/b52e32322ac61fbe924be404d27ee2ce.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7a/16/23/7e466d1881b4008cb0e7cb9029652103.jpg</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>26246000</v>
+        <v>22860000</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>275860930</v>
+        <v>275970213</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>275269812</v>
+        <v>275194363</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>google tivi sony 4k 50 inch k-50s30 moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>coocaa 32 inch</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>images/tv/product_275269812.jpg</t>
+          <t>images/tv/product_275194363.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7f/e1/14/1829eda7b65331f50ed7c8db1286aed4.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/52/8f/c0/e3335770ddd84742ca070f21bb80e167.jpg</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>13877000</v>
+        <v>2559000</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>275902262</v>
+        <v>275224880</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>275247634</v>
+        <v>275020992</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 4k 55 inch oled55b4psa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>sony 55 inch</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>images/tv/product_275247634.jpg</t>
+          <t>images/tv/product_275020992.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7a/16/23/7e466d1881b4008cb0e7cb9029652103.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1c/b7/85/44c4324541b028b753de8f78470aebbf.jpg</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22860000</v>
+        <v>15920000</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>275970213</v>
+        <v>275020993</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>275194363</v>
+        <v>275019168</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>smart tv hd coocaa 32 inch wifi - model 32s3u+ - hang chinh hang</t>
+          <t>sony 50 inch</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>images/tv/product_275194363.jpg</t>
+          <t>images/tv/product_275019168.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/52/8f/c0/e3335770ddd84742ca070f21bb80e167.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/c6/be/07b4a9f3e3bea1083ee2460881980976.jpg</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2559000</v>
+        <v>14530000</v>
       </c>
       <c r="G28" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>275224880</v>
+        <v>275019170</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>275020992</v>
+        <v>274877090</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>google tivi led sony 4k 55 inch k-55s30 vn3 - hang chinh hang</t>
+          <t>samsung 85 inch</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>images/tv/product_275020992.jpg</t>
+          <t>images/tv/product_274877090.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1c/b7/85/44c4324541b028b753de8f78470aebbf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/22/1b/58/6331a95f2366999ed2e5d8e0bdace0fd.jpg</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15920000</v>
+        <v>32460000</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>275020993</v>
+        <v>275972921</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
@@ -1607,51 +1607,51 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>275019168</v>
+        <v>274870710</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>google tivi sony 4k 50 inch k-50s30 - hang chinh hang</t>
+          <t>samsung 55 inch</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>images/tv/product_275019168.jpg</t>
+          <t>images/tv/product_274870710.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/c6/be/07b4a9f3e3bea1083ee2460881980976.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/00/68/e7e9dcaf7eb0014dcd49f47c0c2c576d.jpg</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>14530000</v>
+        <v>10869000</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>275019170</v>
+        <v>275870197</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>274877090</v>
+        <v>274843323</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>qled tivi 4k samsung 85q60da 85 inch smart tv qa85q60da qa85q60d 85q60d - hang chinh hang - chi giao hcm</t>
+          <t>samsung 65 inch</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1661,25 +1661,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>images/tv/product_274877090.jpg</t>
+          <t>images/tv/product_274843323.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/22/1b/58/6331a95f2366999ed2e5d8e0bdace0fd.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/fd/5d/735657b42d0f5d8547473ef7c6720abd.jpg</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>32460000</v>
+        <v>11659000</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>275972921</v>
+        <v>275913630</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
@@ -1687,79 +1687,79 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>274870710</v>
+        <v>253498992</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>smart qled tivi 4k samsung 55q60da 55 inch qa55q60da qa55q60d 55q60d - hang chinh hang - chi giao hcm</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>images/tv/product_274870710.jpg</t>
+          <t>images/tv/product_253498992.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/00/68/e7e9dcaf7eb0014dcd49f47c0c2c576d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/76/c6/ac81695b2c543d911eb09d4bea2d0049.png</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10869000</v>
+        <v>17031000</v>
       </c>
       <c r="G32" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>275870197</v>
+        <v>270105641</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>274843323</v>
+        <v>248237801</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>smart tivi samsung 4k 65 inch ua65du8000 65du8000 - hang chinh hang - chi giao hcm</t>
+          <t>k-elec 43 inch</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>k elec</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>images/tv/product_274843323.jpg</t>
+          <t>images/tv/product_248237801.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/fd/5d/735657b42d0f5d8547473ef7c6720abd.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/fe/fb/51a3eba6e8571bbb0a0b06799ffaad9f.jpg</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>11659000</v>
+        <v>8660000</v>
       </c>
       <c r="G33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>275913630</v>
+        <v>248237802</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
@@ -1767,11 +1767,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253498992</v>
+        <v>246208809</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 55a3psa 4k 55 inch - hang chinh hang ( chi giao hcm )</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1781,265 +1781,265 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>images/tv/product_253498992.jpg</t>
+          <t>images/tv/product_246208809.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/76/c6/ac81695b2c543d911eb09d4bea2d0049.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9f/64/f0/cb0406e3596f74ca73fc7c598fafec19.jpg</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>17031000</v>
+        <v>10849000</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>270105641</v>
+        <v>272162419</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>248237801</v>
+        <v>197920267</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>android tv k-elec full hd 43lk885v - hang nhap khau</t>
+          <t>tcl 55 inch</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>k elec</t>
+          <t>tcl</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>images/tv/product_248237801.jpg</t>
+          <t>images/tv/product_197920267.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/fe/fb/51a3eba6e8571bbb0a0b06799ffaad9f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d4/49/5a/30784a1e7c4d001f5c0c1dbb90167c00.png</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8660000</v>
+        <v>7299000</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>248237802</v>
+        <v>199124564</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>246208809</v>
+        <v>118537278</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>smart tivi nanocell lg 4k 55 inch 55nano76sqa [hang chinh hang]</t>
+          <t>coocaa 32 inch</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>images/tv/product_246208809.jpg</t>
+          <t>images/tv/product_118537278.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9f/64/f0/cb0406e3596f74ca73fc7c598fafec19.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fc/86/7e/37cdfcdf2f09100d63209ad62f78c6f0.jpg</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10849000</v>
+        <v>3070000</v>
       </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I36" t="n">
-        <v>272162419</v>
+        <v>214962211</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>197920267</v>
+        <v>73681047</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tivi tcl 4k 55 inch 55p638 - hang chinh hang (chi giao hcm)</t>
+          <t>casper 32 inch</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tcl</t>
+          <t>casper</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>images/tv/product_197920267.jpg</t>
+          <t>images/tv/product_73681047.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d4/49/5a/30784a1e7c4d001f5c0c1dbb90167c00.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/66/a6/15/2e2971e88e43f345f8154dbd2234176a.jpg</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7299000</v>
+        <v>2969000</v>
       </c>
       <c r="G37" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>199124564</v>
+        <v>108399772</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>118537278</v>
+        <v>49089541</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>smart tivi coocaa hd 32 inch 32s3u</t>
+          <t>sharp 332 inch</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>sharp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>images/tv/product_118537278.jpg</t>
+          <t>images/tv/product_49089541.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fc/86/7e/37cdfcdf2f09100d63209ad62f78c6f0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/75/cb/ff/429dcb6a786f0e9621be8e1206a8807b.jpg</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3070000</v>
+        <v>3868000</v>
       </c>
       <c r="G38" t="n">
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>214962211</v>
+        <v>174230405</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>73681047</v>
+        <v>2003079</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>smart tivi casper hd 32 inch 32hx6200</t>
+          <t>samsung 55 inch</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>casper</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>images/tv/product_73681047.jpg</t>
+          <t>images/tv/product_2003079.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/66/a6/15/2e2971e88e43f345f8154dbd2234176a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/64/b9/dd/94550d391168fa26475a53ff02aaf6e0.jpg</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2969000</v>
+        <v>13869000</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>108399772</v>
+        <v>55398751</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>49089541</v>
+        <v>277991140</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tivi led sharp hd 32 inch 2t-c32bd1x</t>
+          <t>xiaomi 43 inch</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharp</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>images/tv/product_49089541.jpg</t>
+          <t>images/tv/product_277991140.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/75/cb/ff/429dcb6a786f0e9621be8e1206a8807b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/9f/db/ce70ad70513f8bead0b0da6ac225dbdd.jpg</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3868000</v>
+        <v>6955000</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>174230405</v>
+        <v>277991141</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
@@ -2047,39 +2047,39 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2003079</v>
+        <v>277575279</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>smart tivi cong qled samsung 4k 55 inch qa55q8cna</t>
+          <t>toshiba 65 inch</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>toshiba</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>images/tv/product_2003079.jpg</t>
+          <t>images/tv/product_277575279.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/64/b9/dd/94550d391168fa26475a53ff02aaf6e0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/b1/e5/977a6bbad5b934a6ae809f5436c1e950.png</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>13869000</v>
+        <v>14460000</v>
       </c>
       <c r="G41" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55398751</v>
+        <v>277575280</v>
       </c>
       <c r="J41" t="n">
         <v>2</v>
@@ -2087,39 +2087,39 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>277991140</v>
+        <v>277485884</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[new 2026 tv series] smart tivi xiaomi tv a 43 2026 - 43 inch - uhd 4k - hang chinh hang</t>
+          <t>skyworth 24 inch</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>skyworth</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>images/tv/product_277991140.jpg</t>
+          <t>images/tv/product_277485884.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/9f/db/ce70ad70513f8bead0b0da6ac225dbdd.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/84/2d/34feaa2e1294a2253a99d330c2a71471.png</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6955000</v>
+        <v>3859000</v>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>277991141</v>
+        <v>277485901</v>
       </c>
       <c r="J42" t="n">
         <v>2</v>
@@ -2127,39 +2127,39 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>277575279</v>
+        <v>276921311</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>smart tivi toshiba 65 inch 4k uhd 65e330np, giao hang toan quoc - hang chinh hang</t>
+          <t>skyworth 32 inch</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>toshiba</t>
+          <t>skyworth</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>images/tv/product_277575279.jpg</t>
+          <t>images/tv/product_276921311.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/b1/e5/977a6bbad5b934a6ae809f5436c1e950.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/35/df/eb2f34cc42060403c6421cd9fa21b673.png</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>14460000</v>
+        <v>4860000</v>
       </c>
       <c r="G43" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>277575280</v>
+        <v>276921314</v>
       </c>
       <c r="J43" t="n">
         <v>2</v>
@@ -2167,39 +2167,39 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>277485884</v>
+        <v>276860956</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>24p6300 - google tivi xach tay di đong fhd 24 inch skyworth - hang chinh hang</t>
+          <t>hisense 32 inch</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>skyworth</t>
+          <t>hisense</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>images/tv/product_277485884.jpg</t>
+          <t>images/tv/product_276860956.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/84/2d/34feaa2e1294a2253a99d330c2a71471.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ed/42/fe/f34df7a15b672307e4491d8c85850e56.png</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3859000</v>
+        <v>3289000</v>
       </c>
       <c r="G44" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>277485901</v>
+        <v>276931381</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
@@ -2207,39 +2207,39 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>276921311</v>
+        <v>276621107</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tivi led skyworth hd 32 inch  32e5000g - hang chinh hang - chi giao hcm</t>
+          <t>coocaa 55 inch</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>skyworth</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>images/tv/product_276921311.jpg</t>
+          <t>images/tv/product_276621107.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/35/df/eb2f34cc42060403c6421cd9fa21b673.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/73/85/ab/258a2d31519a44e1c121c48fc728a7a8.jpg</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4860000</v>
+        <v>9139000</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>276921314</v>
+        <v>276621108</v>
       </c>
       <c r="J45" t="n">
         <v>2</v>
@@ -2247,39 +2247,39 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>276860956</v>
+        <v>276606293</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>android tivi led hisense 32 inch 32a4n tro ly ao google voice control, bao hanh chinh hang 2 nam - hang chinh hang</t>
+          <t>xiaomi 85 inch</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>hisense</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>images/tv/product_276860956.jpg</t>
+          <t>images/tv/product_276606293.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ed/42/fe/f34df7a15b672307e4491d8c85850e56.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/c0/fe/71448b7a57557488f7a26730f09874e5.png</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3289000</v>
+        <v>27259000</v>
       </c>
       <c r="G46" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>276931381</v>
+        <v>276606294</v>
       </c>
       <c r="J46" t="n">
         <v>2</v>
@@ -2287,39 +2287,39 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>276621107</v>
+        <v>276387015</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>smart tivi coocaa khung tranh qled 4k 55 inch 55ln7000g - hang chinh hang</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>images/tv/product_276621107.jpg</t>
+          <t>images/tv/product_276387015.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/73/85/ab/258a2d31519a44e1c121c48fc728a7a8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/aa/0b/43/93e8e431ed5c8f81095820c93ffa8e14.png</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>9139000</v>
+        <v>35819000</v>
       </c>
       <c r="G47" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>276621108</v>
+        <v>276387018</v>
       </c>
       <c r="J47" t="n">
         <v>2</v>
@@ -2327,39 +2327,39 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>276606293</v>
+        <v>276379164</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>google tivi xiaomi qled 4k 85 inch l85ma-maxea -  hang chinh hang - chi giao hcm</t>
+          <t>aqua 43 inch</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>aqua</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>images/tv/product_276606293.jpg</t>
+          <t>images/tv/product_276379164.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/c0/fe/71448b7a57557488f7a26730f09874e5.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/a0/fc/9f0f8b8187b95320bdf3650cca22713b.jpg</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>27259000</v>
+        <v>7260000</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>276606294</v>
+        <v>276379165</v>
       </c>
       <c r="J48" t="n">
         <v>2</v>
@@ -2367,199 +2367,199 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>276387015</v>
+        <v>276362981</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 4k 55 inch 55g4psa mau moi - hang chinh hang - chi giao hcm</t>
+          <t>toshiba 55 inch</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>toshiba</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>images/tv/product_276387015.jpg</t>
+          <t>images/tv/product_276362981.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/aa/0b/43/93e8e431ed5c8f81095820c93ffa8e14.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c6/98/55/7c6f16897841bbcef9487c1ae5560d1f.png</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>35819000</v>
+        <v>15160000</v>
       </c>
       <c r="G49" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>276387018</v>
+        <v>276362982</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>276379164</v>
+        <v>276319244</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>android tivi aqua 43 inch aqt43k800ug - hang chinh hang - bao hanh 1 đoi 1 trong 730 ngay đoi voi loi man hinh</t>
+          <t>toshiba 55 inch</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>aqua</t>
+          <t>toshiba</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>images/tv/product_276379164.jpg</t>
+          <t>images/tv/product_276319244.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/a0/fc/9f0f8b8187b95320bdf3650cca22713b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/37/9d/fa70ce097b81ac0360df39199b8eb951.png</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7260000</v>
+        <v>11260000</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>276379165</v>
+        <v>276319245</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>276362981</v>
+        <v>276252722</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>smart tivi qled toshiba 55 inch 55m450np, man hinh quantum dot 4k uhd -  giao hang toan quoc - hang chinh hang</t>
+          <t>lg 65 inch</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>toshiba</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>images/tv/product_276362981.jpg</t>
+          <t>images/tv/product_276252722.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c6/98/55/7c6f16897841bbcef9487c1ae5560d1f.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1f/bc/77/22d6c668b8e7185c82939fd59f112cf9.jpg</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>15160000</v>
+        <v>13270000</v>
       </c>
       <c r="G51" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>276362982</v>
+        <v>276854350</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>276319244</v>
+        <v>276089188</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>smart tivi toshiba 55 inch 55e330np, man hinh led 4k uhd - giao hang toan quoc - hang chinh hang</t>
+          <t>skyworth 24 inch</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>toshiba</t>
+          <t>skyworth</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>images/tv/product_276319244.jpg</t>
+          <t>images/tv/product_276089188.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/37/9d/fa70ce097b81ac0360df39199b8eb951.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4d/5b/fe/a28a95b3393fd24c82bac1ad4df0e57e.png</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>11260000</v>
+        <v>5860000</v>
       </c>
       <c r="G52" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>276319245</v>
+        <v>276920434</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>276252722</v>
+        <v>276032905</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>smart tivi lg 4k 65 inch 65ut7350psb - hang chinh hang - chi giao hcm</t>
+          <t>skyworth 43 inch</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>skyworth</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>images/tv/product_276252722.jpg</t>
+          <t>images/tv/product_276032905.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1f/bc/77/22d6c668b8e7185c82939fd59f112cf9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/c3/29/ef77572e76d3c428c15aa0e923219b51.png</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>13270000</v>
+        <v>6860000</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>276854350</v>
+        <v>276921504</v>
       </c>
       <c r="J53" t="n">
         <v>2</v>
@@ -2567,39 +2567,39 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>276089188</v>
+        <v>275803796</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>skyworth google tv 2k fhd 24p6300 - hang chinh hang</t>
+          <t>lg 50 inch</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>skyworth</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>images/tv/product_276089188.jpg</t>
+          <t>images/tv/product_275803796.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4d/5b/fe/a28a95b3393fd24c82bac1ad4df0e57e.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/b9/51/69e6609fb15d44a28920455af59caa97.png</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5860000</v>
+        <v>10759000</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>276920434</v>
+        <v>275912420</v>
       </c>
       <c r="J54" t="n">
         <v>2</v>
@@ -2607,39 +2607,39 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>276032905</v>
+        <v>275603494</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>smart tivi skyworth 43e5000g 43 inch 43e5000g - hang chinh hang</t>
+          <t>sony 85 inch</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>skyworth</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>images/tv/product_276032905.jpg</t>
+          <t>images/tv/product_275603494.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/c3/29/ef77572e76d3c428c15aa0e923219b51.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ae/da/43/febf2db6ac490b9b997ceb860a1635e0.png</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6860000</v>
+        <v>35927000</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>276921504</v>
+        <v>275860914</v>
       </c>
       <c r="J55" t="n">
         <v>2</v>
@@ -2647,39 +2647,39 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275803796</v>
+        <v>275602893</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>smart tivi nanocell lg 4k 50 inch 50nano81tsa - hang chinh hang - chi giao tai hcm</t>
+          <t>sony 65 inch</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>images/tv/product_275803796.jpg</t>
+          <t>images/tv/product_275602893.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/b9/51/69e6609fb15d44a28920455af59caa97.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b2/1c/4c332a6e22b0211485ed05cb3471c9d9.png</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10759000</v>
+        <v>38362000</v>
       </c>
       <c r="G56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>275912420</v>
+        <v>275911929</v>
       </c>
       <c r="J56" t="n">
         <v>2</v>
@@ -2687,39 +2687,39 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>275603494</v>
+        <v>275249107</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>k-85s30 - google tivi sony 4k 85 inch k-85s30 - hang chinh hang</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>images/tv/product_275603494.jpg</t>
+          <t>images/tv/product_275249107.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ae/da/43/febf2db6ac490b9b997ceb860a1635e0.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/59/4d/a27a2b6e42f714f6f3921dd8fed57433.jpg</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35927000</v>
+        <v>10972000</v>
       </c>
       <c r="G57" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>275860914</v>
+        <v>275911928</v>
       </c>
       <c r="J57" t="n">
         <v>2</v>
@@ -2727,39 +2727,39 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>275602893</v>
+        <v>275245456</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>k-65xr70 - google tivi mini led sony 4k 65 inch k-65xr70 - hang chinh hang</t>
+          <t>lg 43 inch</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>images/tv/product_275602893.jpg</t>
+          <t>images/tv/product_275245456.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b2/1c/4c332a6e22b0211485ed05cb3471c9d9.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5c/6d/f1912f686f179ec7c244555083d96c2c.jpg</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>38362000</v>
+        <v>7759000</v>
       </c>
       <c r="G58" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>275911929</v>
+        <v>276152923</v>
       </c>
       <c r="J58" t="n">
         <v>2</v>
@@ -2767,11 +2767,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>275249107</v>
+        <v>275245427</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>smart tivi nanocell lg 4k 55 inch 55nano81tsa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>lg 43 inch</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2781,37 +2781,37 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>images/tv/product_275249107.jpg</t>
+          <t>images/tv/product_275245427.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/59/4d/a27a2b6e42f714f6f3921dd8fed57433.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/41/68/9cb9c7ad797d34b500d4faf50182170e.jpg</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10972000</v>
+        <v>8729000</v>
       </c>
       <c r="G59" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>275911928</v>
+        <v>275251819</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>275245456</v>
+        <v>275244717</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>smart tivi lg 4k 43 inch 43ut8050psb moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>lg 65 inch</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2821,25 +2821,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>images/tv/product_275245456.jpg</t>
+          <t>images/tv/product_275244717.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5c/6d/f1912f686f179ec7c244555083d96c2c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/86/0b/72/68a2b4e7362df63cfc665210deaf3bae.png</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>7759000</v>
+        <v>32138000</v>
       </c>
       <c r="G60" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>276152923</v>
+        <v>275912513</v>
       </c>
       <c r="J60" t="n">
         <v>2</v>
@@ -2847,79 +2847,79 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>275245427</v>
+        <v>275020293</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>smart tivi nanocell lg 4k 43 inch 43nano81tsa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>sony 43 inch</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>images/tv/product_275245427.jpg</t>
+          <t>images/tv/product_275020293.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/41/68/9cb9c7ad797d34b500d4faf50182170e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/c6/be/b00a473274799a87fe8d383de43b03e1.jpg</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8729000</v>
+        <v>12220000</v>
       </c>
       <c r="G61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>275251819</v>
+        <v>275020294</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>275244717</v>
+        <v>274969952</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 4k 65 inch oled65c4psa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>sony 65 inch</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>images/tv/product_275244717.jpg</t>
+          <t>images/tv/product_274969952.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/86/0b/72/68a2b4e7362df63cfc665210deaf3bae.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/95/69/6637c09a7c903698f1aa03f3b44b254d.jpg</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>32138000</v>
+        <v>17569000</v>
       </c>
       <c r="G62" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>275912513</v>
+        <v>274969953</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
@@ -2927,39 +2927,39 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>275020293</v>
+        <v>274876803</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>google tivi led sony 4k 43 inch k-43s30 vn3 - hang chinh hang</t>
+          <t>samsung 75 inch</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>images/tv/product_275020293.jpg</t>
+          <t>images/tv/product_274876803.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1e/c6/be/b00a473274799a87fe8d383de43b03e1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c2/a8/77/a93f5e365daae2972ac058b4338fc6b4.jpg</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>12220000</v>
+        <v>18559000</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>275020294</v>
+        <v>275972830</v>
       </c>
       <c r="J63" t="n">
         <v>2</v>
@@ -2967,51 +2967,51 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>274969952</v>
+        <v>274870404</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>google tivi sony 4k 65 inch kd-65x75k - hang chinh hang</t>
+          <t>samsung 43 inch</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>images/tv/product_274969952.jpg</t>
+          <t>images/tv/product_274870404.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/95/69/6637c09a7c903698f1aa03f3b44b254d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/71/a7/45ff5a80084cc62dd46405a3318544d1.jpg</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>17569000</v>
+        <v>8260000</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>274969953</v>
+        <v>275972686</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>274876803</v>
+        <v>274843351</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>smart qled tivi 4k samsung 75q60da 75 inch qa75q60da qa75q60d 75q60d - hang chinh hang - chi giao hcm</t>
+          <t>samsung 85 inch</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3021,25 +3021,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>images/tv/product_274876803.jpg</t>
+          <t>images/tv/product_274843351.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c2/a8/77/a93f5e365daae2972ac058b4338fc6b4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ab/61/cb/45aa1628e424fcf9123062b1ee46616e.png</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>18559000</v>
+        <v>27259000</v>
       </c>
       <c r="G65" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>275972830</v>
+        <v>276192662</v>
       </c>
       <c r="J65" t="n">
         <v>2</v>
@@ -3047,11 +3047,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>274870404</v>
+        <v>274843293</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>smart tivi qled 4k samsung 43q60da 43 inch smart tv qa43q60da qa43q60d 43q60d - hang chinh hang - chi giao hcm</t>
+          <t>samsung 55 inch</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3061,65 +3061,65 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>images/tv/product_274870404.jpg</t>
+          <t>images/tv/product_274843293.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/71/a7/45ff5a80084cc62dd46405a3318544d1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/bf/01/1ab259b3117e14b830a0d7a9e93303d4.jpg</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8260000</v>
+        <v>9460000</v>
       </c>
       <c r="G66" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>275972686</v>
+        <v>275878831</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>274843351</v>
+        <v>263584620</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>smart tivi samsung 4k 85 inch ua85du8000 85du8000 - hang chinh hang - chi giao hcm</t>
+          <t>sony 75 inch</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>images/tv/product_274843351.jpg</t>
+          <t>images/tv/product_263584620.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ab/61/cb/45aa1628e424fcf9123062b1ee46616e.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/58/4a/ef1296df12af85b0ab72d691ecf5beab.png</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>27259000</v>
+        <v>22595000</v>
       </c>
       <c r="G67" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>276192662</v>
+        <v>276928226</v>
       </c>
       <c r="J67" t="n">
         <v>2</v>
@@ -3127,39 +3127,39 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>274843293</v>
+        <v>253502839</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>smart tivi samsung 4k 55 inch ua55du8000 55du8000 - hang chinh hang - chi giao hcm</t>
+          <t>lg 75 inch</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>images/tv/product_274843293.jpg</t>
+          <t>images/tv/product_253502839.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/bf/01/1ab259b3117e14b830a0d7a9e93303d4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e9/f2/74/fc175e62b0ed7691397f102a74616f05.png</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>9460000</v>
+        <v>15903000</v>
       </c>
       <c r="G68" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>275878831</v>
+        <v>270105637</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
@@ -3167,39 +3167,39 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>263584620</v>
+        <v>248208320</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>google tivi sony 4k 75 inch kd.75x77l - hang chinh hang</t>
+          <t>k-elec 32 inch</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>k elec</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>images/tv/product_263584620.jpg</t>
+          <t>images/tv/product_248208320.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/58/4a/ef1296df12af85b0ab72d691ecf5beab.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/63/2f/e86442ba3a9fc738f39d0662a848e375.jpg</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>22595000</v>
+        <v>6760000</v>
       </c>
       <c r="G69" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>276928226</v>
+        <v>248208321</v>
       </c>
       <c r="J69" t="n">
         <v>2</v>
@@ -3207,39 +3207,39 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253502839</v>
+        <v>207872108</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>smart tivi lg 75ur7550psc 4k 75 inch - hang chinh hang - chi giao hcm</t>
+          <t>tv 32 inch</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>k elec</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>images/tv/product_253502839.jpg</t>
+          <t>images/tv/product_207872108.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e9/f2/74/fc175e62b0ed7691397f102a74616f05.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/0c/46/13fb2f32f7482abd727e75f3ef27cad1.jpg</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>15903000</v>
+        <v>4960000</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>270105637</v>
+        <v>207872109</v>
       </c>
       <c r="J70" t="n">
         <v>2</v>
@@ -3247,30 +3247,30 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>248208320</v>
+        <v>197883135</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>android tv k-elec hd 32lk885v - hang nhap khau</t>
+          <t>tcl 55 inch</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>k elec</t>
+          <t>tcl</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>images/tv/product_248208320.jpg</t>
+          <t>images/tv/product_197883135.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/63/2f/e86442ba3a9fc738f39d0662a848e375.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5d/b6/75/4a4ce9c9399e4ee1b01eee6eb590bc71.jpg</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6760000</v>
+        <v>7209000</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3279,47 +3279,47 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>248208321</v>
+        <v>197883136</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>207872108</v>
+        <v>189176771</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>tivi 32in hang chinh hang nhap khau tu han quoc</t>
+          <t>coocaa 55 inch</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>k elec</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>images/tv/product_207872108.jpg</t>
+          <t>images/tv/product_189176771.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/0c/46/13fb2f32f7482abd727e75f3ef27cad1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/80/27/106c5de13d425558fdbd1aebd5ec3719.jpg</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4960000</v>
+        <v>8269000</v>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>207872109</v>
+        <v>215320930</v>
       </c>
       <c r="J72" t="n">
         <v>2</v>
@@ -3327,79 +3327,79 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>197883135</v>
+        <v>178093791</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>google tivi tcl led 4k 55 inch 55p638 - hang chinh hang( chi giao tai hcm)</t>
+          <t>casper 43 inch</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>tcl</t>
+          <t>casper</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>images/tv/product_197883135.jpg</t>
+          <t>images/tv/product_178093791.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5d/b6/75/4a4ce9c9399e4ee1b01eee6eb590bc71.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7c/91/00/9c8cf822c9b992030600c0ea09011ea9.jpg</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>7209000</v>
+        <v>7460000</v>
       </c>
       <c r="G73" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>197883136</v>
+        <v>178093794</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>189176771</v>
+        <v>178062046</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>google tivi coocaa 4k 55 inch - model 55y72 - hang chinh hang</t>
+          <t>sony 65 inch</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>images/tv/product_189176771.jpg</t>
+          <t>images/tv/product_178062046.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/80/27/106c5de13d425558fdbd1aebd5ec3719.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c8/4e/4c/fc286cd915b6085bfe8794b0035151aa.png</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>8269000</v>
+        <v>42118000</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>215320930</v>
+        <v>192202504</v>
       </c>
       <c r="J74" t="n">
         <v>2</v>
@@ -3407,30 +3407,30 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>178093791</v>
+        <v>178058676</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>tivi casper 43 inch 43fg5200 - hang chinh hang</t>
+          <t>sony 43 inch</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>casper</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>images/tv/product_178093791.jpg</t>
+          <t>images/tv/product_178058676.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7c/91/00/9c8cf822c9b992030600c0ea09011ea9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/5d/a2/2a24cf8c4ca937b9a306221b36c8068a.jpg</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7460000</v>
+        <v>10371000</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3439,19 +3439,19 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>178093794</v>
+        <v>183725350</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>178062046</v>
+        <v>176058957</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>google tivi mini led sony 4k 65 inch xr-65x95k - model 2022</t>
+          <t>sony 32 inch</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3461,25 +3461,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>images/tv/product_178062046.jpg</t>
+          <t>images/tv/product_176058957.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c8/4e/4c/fc286cd915b6085bfe8794b0035151aa.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/86/63/f0/e9d5694098f4728a55964356a0397b5a.jpg</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>42118000</v>
+        <v>6679000</v>
       </c>
       <c r="G76" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>192202504</v>
+        <v>184896236</v>
       </c>
       <c r="J76" t="n">
         <v>2</v>
@@ -3487,79 +3487,79 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>178058676</v>
+        <v>92504473</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>google tivi sony 4k 43 inch kd-43x81dk - model 2022</t>
+          <t>akino 55 inch</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>akino</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>images/tv/product_178058676.jpg</t>
+          <t>images/tv/product_92504473.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/56/5d/a2/2a24cf8c4ca937b9a306221b36c8068a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d3/79/3a/21d5daa2cdef04a2e271521ad6a71286.png</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>10371000</v>
+        <v>6470000</v>
       </c>
       <c r="G77" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>183725350</v>
+        <v>92504474</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>176058957</v>
+        <v>90655703</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>google tivi sony 2k 32 inch kd-32w830k - model 2022</t>
+          <t>aqua 55 inch</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>aqua</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>images/tv/product_176058957.jpg</t>
+          <t>images/tv/product_90655703.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/86/63/f0/e9d5694098f4728a55964356a0397b5a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/e2/54/c3696b513c951625a3999f6af1cc2fdc.png</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6679000</v>
+        <v>9809000</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>184896236</v>
+        <v>120492012</v>
       </c>
       <c r="J78" t="n">
         <v>2</v>
@@ -3567,39 +3567,39 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>92504473</v>
+        <v>72797571</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>uled tivi akino 55 inch tl-hu9 - android - hang chinh hang (giao hang toan quoc)</t>
+          <t>lg 65 inch</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>akino</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>images/tv/product_92504473.jpg</t>
+          <t>images/tv/product_72797571.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d3/79/3a/21d5daa2cdef04a2e271521ad6a71286.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/30/3c/58/eb7826f4f1788aa21dff5c3debbf3ad9.jpg</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6470000</v>
+        <v>26606000</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>92504474</v>
+        <v>75812285</v>
       </c>
       <c r="J79" t="n">
         <v>2</v>
@@ -3607,39 +3607,39 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90655703</v>
+        <v>277575237</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>android tivi aqua 4k 55 inch le55aqts6ug - hang chinh hang (chi giao hcm)</t>
+          <t>toshiba 55 inch</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>aqua</t>
+          <t>toshiba</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>images/tv/product_90655703.jpg</t>
+          <t>images/tv/product_277575237.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/53/e2/54/c3696b513c951625a3999f6af1cc2fdc.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/9c/bb/50eabadb5ef6b4f01595fccda6f3d7b6.png</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9809000</v>
+        <v>12460000</v>
       </c>
       <c r="G80" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>120492012</v>
+        <v>277575238</v>
       </c>
       <c r="J80" t="n">
         <v>2</v>
@@ -3647,39 +3647,39 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>72797571</v>
+        <v>276862301</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 4k 65 inch oled65gxpta</t>
+          <t>hisense 55 inch</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>hisense</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>images/tv/product_72797571.jpg</t>
+          <t>images/tv/product_276862301.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/30/3c/58/eb7826f4f1788aa21dff5c3debbf3ad9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/c7/f8/32b1d5d0cbd3e338720852f5f8d72bc4.png</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>26606000</v>
+        <v>13960000</v>
       </c>
       <c r="G81" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>75812285</v>
+        <v>276862302</v>
       </c>
       <c r="J81" t="n">
         <v>2</v>
@@ -3687,39 +3687,39 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>277575237</v>
+        <v>276861683</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>smart tivi toshiba 55 inch 4k uhd 55e330np, giao hang toan quoc - hang chinh hang</t>
+          <t>hisense 43 inch</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>toshiba</t>
+          <t>hisense</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>images/tv/product_277575237.jpg</t>
+          <t>images/tv/product_276861683.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/9c/bb/50eabadb5ef6b4f01595fccda6f3d7b6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/6f/fd/3064a3d06efee9e3a0279dfab978e78c.png</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>12460000</v>
+        <v>6610000</v>
       </c>
       <c r="G82" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>277575238</v>
+        <v>276861684</v>
       </c>
       <c r="J82" t="n">
         <v>2</v>
@@ -3727,11 +3727,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>276862301</v>
+        <v>276861471</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>google tivi hisense qled hisense 55 inch 55q6n google assistant co tieng viet, bao hanh 3 nam - hang chinh hang</t>
+          <t>hisense 40 inch</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3741,25 +3741,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>images/tv/product_276862301.jpg</t>
+          <t>images/tv/product_276861471.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/c7/f8/32b1d5d0cbd3e338720852f5f8d72bc4.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/87/ff/0f85dfc451bb91ea8378dacd5901db2f.png</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>13960000</v>
+        <v>5810000</v>
       </c>
       <c r="G83" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>276862302</v>
+        <v>276861472</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
@@ -3767,39 +3767,39 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>276861683</v>
+        <v>276621654</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>android tivi led hisense 43 inch a4n tro ly ao google voice control, bao hanh 2 nam - hang chinh hang</t>
+          <t>lg 65 inch</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>hisense</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>images/tv/product_276861683.jpg</t>
+          <t>images/tv/product_276621654.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/39/6f/fd/3064a3d06efee9e3a0279dfab978e78c.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/cb/64/bb4bdb0f4ed531dfde10b5b26f93094e.jpg</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6610000</v>
+        <v>89029000</v>
       </c>
       <c r="G84" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>276861684</v>
+        <v>276621655</v>
       </c>
       <c r="J84" t="n">
         <v>2</v>
@@ -3807,39 +3807,39 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>276861471</v>
+        <v>276606018</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>android tivi led hisense 40 inch a4n tro ly ao google voice control, bao hanh 2 nam - hang chinh hang</t>
+          <t>coocaa 65 inch</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>hisense</t>
+          <t>coocaa</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>images/tv/product_276861471.jpg</t>
+          <t>images/tv/product_276606018.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/87/ff/0f85dfc451bb91ea8378dacd5901db2f.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/ba/b2ceea4aa0042e55711d65984ee9858a.png</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5810000</v>
+        <v>12060000</v>
       </c>
       <c r="G85" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>276861472</v>
+        <v>276606019</v>
       </c>
       <c r="J85" t="n">
         <v>2</v>
@@ -3847,30 +3847,30 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>276621654</v>
+        <v>276415813</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 4k 65 inch 65m4psa - hang chinh hang</t>
+          <t>hisense 43 inch</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>hisense</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>images/tv/product_276621654.jpg</t>
+          <t>images/tv/product_276415813.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/cb/64/bb4bdb0f4ed531dfde10b5b26f93094e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/b1/3e/70482294f07122f066828a1872cc0a91.png</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>89029000</v>
+        <v>6960000</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>276621655</v>
+        <v>276415819</v>
       </c>
       <c r="J86" t="n">
         <v>2</v>
@@ -3887,39 +3887,39 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>276606018</v>
+        <v>276412014</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>smart tivi 65 inch qled 4k tivi khung tranh google frame tivi coocaa 65ln7000g - hang chinh hang - chi giao hcm</t>
+          <t>aqua 50 inch</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>coocaa</t>
+          <t>aqua</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>images/tv/product_276606018.jpg</t>
+          <t>images/tv/product_276412014.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/ba/b2ceea4aa0042e55711d65984ee9858a.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/15/ce/d5/32d3ba86b3954ec7d070dc3b2e999677.jpg</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>12060000</v>
+        <v>12260000</v>
       </c>
       <c r="G87" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>276606019</v>
+        <v>276412015</v>
       </c>
       <c r="J87" t="n">
         <v>2</v>
@@ -3927,39 +3927,39 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>276415813</v>
+        <v>275805126</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>android tivi led hisense 43 inch 43a4n tro ly ao google voice control, bao hanh 2 nam - hang chinh hang</t>
+          <t>lg 75 inch</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>hisense</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>images/tv/product_276415813.jpg</t>
+          <t>images/tv/product_275805126.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/b1/3e/70482294f07122f066828a1872cc0a91.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/95/90/bd/1152f0efb91c9b24b488681791a7d9c5.jpg</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6960000</v>
+        <v>26270000</v>
       </c>
       <c r="G88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>276415819</v>
+        <v>276928136</v>
       </c>
       <c r="J88" t="n">
         <v>2</v>
@@ -3967,39 +3967,39 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>276412014</v>
+        <v>275655645</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>google tivi aqua qled 4k 50 inch aqt50s800ux - freeship toan quoc - bao hanh 1 đoi 1 trong 730 ngay đoi voi loi man hinh - hang chinh hang</t>
+          <t>sony 65 inch</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>aqua</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>images/tv/product_276412014.jpg</t>
+          <t>images/tv/product_275655645.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/15/ce/d5/32d3ba86b3954ec7d070dc3b2e999677.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/09/86/1da747b3b509f317dfbd68d4f8f57259.png</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>12260000</v>
+        <v>18422000</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>276412015</v>
+        <v>275860958</v>
       </c>
       <c r="J89" t="n">
         <v>2</v>
@@ -4007,39 +4007,39 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>275805126</v>
+        <v>275655333</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>smart tivi nanocell lg 4k 75 inch 75nano81tsa - hang chinh hang - chi giao tai hcm</t>
+          <t>samsung 55 inch</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>images/tv/product_275805126.jpg</t>
+          <t>images/tv/product_275655333.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/95/90/bd/1152f0efb91c9b24b488681791a7d9c5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d6/bf/85/2830ab133338d9d358d6b12f18aabc11.png</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>26270000</v>
+        <v>9460000</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>276928136</v>
+        <v>276192603</v>
       </c>
       <c r="J90" t="n">
         <v>2</v>
@@ -4047,11 +4047,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>275655645</v>
+        <v>275603326</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>k-65s30 - google tivi sony 4k 65 inch k-65s30 - hang chinh hang - chi giao ho chi minh</t>
+          <t>sony 75 inch</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4061,25 +4061,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>images/tv/product_275655645.jpg</t>
+          <t>images/tv/product_275603326.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/09/86/1da747b3b509f317dfbd68d4f8f57259.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f8/0a/a7/98f2a7f46efed4f68d058f84a31d0d1b.jpg</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>18422000</v>
+        <v>50020000</v>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>275860958</v>
+        <v>276928230</v>
       </c>
       <c r="J91" t="n">
         <v>2</v>
@@ -4087,39 +4087,39 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>275655333</v>
+        <v>275270303</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ua55du8000 - smart tivi samsung 4k 55 inch ua55du8000 - hang chinh hang - chi giao ho chi minh</t>
+          <t>sony 65 inch</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>sony</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>images/tv/product_275655333.jpg</t>
+          <t>images/tv/product_275270303.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d6/bf/85/2830ab133338d9d358d6b12f18aabc11.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/09/86/1d240c4dae4d7e6c1ab741698c42dea6.png</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>9460000</v>
+        <v>18422000</v>
       </c>
       <c r="G92" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>276192603</v>
+        <v>275860982</v>
       </c>
       <c r="J92" t="n">
         <v>2</v>
@@ -4127,79 +4127,79 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>275603326</v>
+        <v>275268806</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>k-75xr70 - google tivi mini led sony 4k 75 inch k-75xr70 - hang chinh hang</t>
+          <t>lg 50 inch</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>images/tv/product_275603326.jpg</t>
+          <t>images/tv/product_275268806.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f8/0a/a7/98f2a7f46efed4f68d058f84a31d0d1b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/21/3f/0c/73fff16384357e8e7e0b3a596f5548ed.png</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>50020000</v>
+        <v>9969000</v>
       </c>
       <c r="G93" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>276928230</v>
+        <v>276287054</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>275270303</v>
+        <v>275249046</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>google tivi sony 4k 65 inch k-65s30 moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>lg 65 inch</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sony</t>
+          <t>lg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>images/tv/product_275270303.jpg</t>
+          <t>images/tv/product_275249046.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/09/86/1d240c4dae4d7e6c1ab741698c42dea6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b8/a4/3d/bd5a8656d19659937433ceb534aa7a47.png</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>18422000</v>
+        <v>12590000</v>
       </c>
       <c r="G94" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>275860982</v>
+        <v>275911865</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
@@ -4207,11 +4207,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>275268806</v>
+        <v>275245028</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>smart tivi lg 4k 50 inch 50ut8050psb moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>lg 65 inch</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4221,37 +4221,37 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>images/tv/product_275268806.jpg</t>
+          <t>images/tv/product_275245028.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/21/3f/0c/73fff16384357e8e7e0b3a596f5548ed.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ac/50/e0/39df0ebf84c264197faec841e41b0d7e.png</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9969000</v>
+        <v>24569000</v>
       </c>
       <c r="G95" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>276287054</v>
+        <v>275251571</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>275249046</v>
+        <v>275244939</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>smart tivi nanocell lg 4k 65 inch 65nano81tsa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>lg 55 inch</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4261,25 +4261,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>images/tv/product_275249046.jpg</t>
+          <t>images/tv/product_275244939.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b8/a4/3d/bd5a8656d19659937433ceb534aa7a47.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b1/10/1d/57483c8fbf6266e17c98c0fd79fb21d7.png</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>12590000</v>
+        <v>39860000</v>
       </c>
       <c r="G96" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>275911865</v>
+        <v>276174975</v>
       </c>
       <c r="J96" t="n">
         <v>2</v>
@@ -4287,39 +4287,39 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>275245028</v>
+        <v>274880735</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 4k 65 inch oled65b4psa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>samsung 65 inch</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>images/tv/product_275245028.jpg</t>
+          <t>images/tv/product_274880735.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ac/50/e0/39df0ebf84c264197faec841e41b0d7e.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/37/78/c224aef47fd8219cbb9bbfe1a23fb5f8.jpg</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>24569000</v>
+        <v>99860000</v>
       </c>
       <c r="G97" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>275251571</v>
+        <v>275986927</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
@@ -4327,161 +4327,41 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>275244939</v>
+        <v>274870762</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>smart tivi oled lg 4k 55 inch oled55c4psa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
+          <t>samsung 65 inch</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>lg</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>images/tv/product_275244939.jpg</t>
+          <t>images/tv/product_274870762.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b1/10/1d/57483c8fbf6266e17c98c0fd79fb21d7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/e1/02/5f59a69630d73f55482c6c1f51d7f0f9.jpg</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>39860000</v>
+        <v>13060000</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>276174975</v>
+        <v>275972773</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>275244561</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>smart tivi oled lg 4k 77 inch oled77c4psa moi 2024 - hang chinh hang - giao hcm va 1 so tinh thanh</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>lg</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>images/tv/product_275244561.jpg</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9d/aa/80/158d513196e5a390a5703ce07cb88c0c.png</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>79860000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>276175361</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>274880735</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>smart tivi samsung neo qled 8k 65 inch qa65qn800d qa65qn800da 65qn800da 65qn800d - hang chinh hang - chi giao hcm</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>samsung</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>images/tv/product_274880735.jpg</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/37/78/c224aef47fd8219cbb9bbfe1a23fb5f8.jpg</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>99860000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>275986927</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>274870762</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>smart qled tivi 4k samsung 65q60da 65 inch qa65q60da qa65q60d 65q60d - hang chinh hang - chi giao hcm</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>samsung</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>images/tv/product_274870762.jpg</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/e1/02/5f59a69630d73f55482c6c1f51d7f0f9.jpg</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>13060000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>14</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>275972773</v>
-      </c>
-      <c r="J101" t="n">
         <v>2</v>
       </c>
     </row>
